--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\K019G1239\1学年\GameJum\2019_9_GameJam\GameJam9\GameJam9\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K019G1339\1年\GameJam9\2019_9_GameJam\GameJam9\GameJam9\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,7 +85,56 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -379,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN15"/>
+  <dimension ref="A1:BN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -392,13 +445,13 @@
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -592,10 +645,10 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -792,10 +845,10 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -992,10 +1045,10 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1192,7 +1245,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1392,7 +1445,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1592,7 +1645,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1792,7 +1845,7 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1992,10 +2045,10 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2084,8 +2137,8 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
+      <c r="AF9" t="s">
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2192,10 +2245,10 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2270,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2392,10 +2445,10 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2470,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2592,10 +2645,10 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2630,8 +2683,8 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="N12" t="s">
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2792,10 +2845,10 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2825,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2992,10 +3045,10 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -3019,25 +3072,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3105,8 +3158,8 @@
       <c r="AL14">
         <v>0</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
+      <c r="AM14" t="s">
+        <v>1</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3115,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3390,21 +3443,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <v>1</v>
+      </c>
+      <c r="BJ16">
+        <v>1</v>
+      </c>
+      <c r="BK16">
+        <v>1</v>
+      </c>
+      <c r="BL16">
+        <v>1</v>
+      </c>
+      <c r="BM16">
+        <v>1</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+      <c r="BI17">
+        <v>1</v>
+      </c>
+      <c r="BJ17">
+        <v>1</v>
+      </c>
+      <c r="BK17">
+        <v>1</v>
+      </c>
+      <c r="BL17">
+        <v>1</v>
+      </c>
+      <c r="BM17">
+        <v>1</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+      <c r="BG18">
+        <v>1</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>1</v>
+      </c>
+      <c r="BK18">
+        <v>1</v>
+      </c>
+      <c r="BL18">
+        <v>1</v>
+      </c>
+      <c r="BM18">
+        <v>1</v>
+      </c>
+      <c r="BN18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>1</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
+      </c>
+      <c r="BK19">
+        <v>1</v>
+      </c>
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>1</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BN15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9756" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Maptest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
   <si>
     <t>P</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -85,11 +105,67 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -111,6 +187,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -434,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -445,13 +542,13 @@
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -645,10 +742,10 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -845,10 +942,10 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1045,10 +1142,10 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1245,7 +1342,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1445,7 +1542,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1645,7 +1742,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1845,7 +1942,7 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2045,7 +2142,7 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2125,14 +2222,14 @@
       <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
+      <c r="AB9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>5</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2245,10 +2342,10 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2445,10 +2542,10 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2523,22 +2620,22 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2645,10 +2742,10 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2680,8 +2777,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
+      <c r="M12" t="s">
+        <v>2</v>
       </c>
       <c r="N12" t="s">
         <v>1</v>
@@ -2689,8 +2786,8 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>0</v>
+      <c r="P12" t="s">
+        <v>2</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2845,10 +2942,10 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2970,8 +3067,8 @@
       <c r="AP13">
         <v>0</v>
       </c>
-      <c r="AQ13">
-        <v>0</v>
+      <c r="AQ13" t="s">
+        <v>4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3045,10 +3142,10 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -3056,11 +3153,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3068,8 +3165,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>2</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3078,31 +3175,31 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
+      <c r="R14" t="s">
+        <v>2</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
+      <c r="T14" t="s">
+        <v>2</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3125,14 +3222,14 @@
       <c r="AA14">
         <v>0</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
+      <c r="AB14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>2</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -3146,8 +3243,8 @@
       <c r="AH14">
         <v>0</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
+      <c r="AI14" t="s">
+        <v>2</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -3176,14 +3273,14 @@
       <c r="AR14">
         <v>0</v>
       </c>
-      <c r="AS14">
-        <v>0</v>
+      <c r="AS14" t="s">
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>0</v>
       </c>
-      <c r="AU14">
-        <v>0</v>
+      <c r="AU14" t="s">
+        <v>6</v>
       </c>
       <c r="AV14">
         <v>0</v>
@@ -3191,8 +3288,8 @@
       <c r="AW14">
         <v>0</v>
       </c>
-      <c r="AX14">
-        <v>0</v>
+      <c r="AX14" t="s">
+        <v>2</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3206,8 +3303,8 @@
       <c r="BB14">
         <v>0</v>
       </c>
-      <c r="BC14">
-        <v>0</v>
+      <c r="BC14" t="s">
+        <v>2</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3215,8 +3312,8 @@
       <c r="BE14">
         <v>0</v>
       </c>
-      <c r="BF14">
-        <v>0</v>
+      <c r="BF14" t="s">
+        <v>2</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3230,8 +3327,8 @@
       <c r="BJ14">
         <v>0</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
+      <c r="BK14" t="s">
+        <v>2</v>
       </c>
       <c r="BL14">
         <v>0</v>
@@ -3239,16 +3336,16 @@
       <c r="BM14">
         <v>0</v>
       </c>
-      <c r="BN14">
-        <v>0</v>
+      <c r="BN14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3272,25 +3369,25 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3310,8 +3407,8 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
+      <c r="W15" t="s">
+        <v>2</v>
       </c>
       <c r="X15">
         <v>1</v>
@@ -3368,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>1</v>
@@ -3445,67 +3542,67 @@
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -3514,751 +3611,757 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"g"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>P</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -105,42 +113,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -180,76 +153,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -532,7 +435,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1947,8 +1850,8 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2148,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2348,10 +2251,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2548,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2620,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>2</v>
@@ -2635,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="AF11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -3238,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="s">
         <v>2</v>
@@ -3285,8 +3188,8 @@
       <c r="AV14">
         <v>0</v>
       </c>
-      <c r="AW14">
-        <v>0</v>
+      <c r="AW14" t="s">
+        <v>8</v>
       </c>
       <c r="AX14" t="s">
         <v>2</v>
@@ -3306,8 +3209,8 @@
       <c r="BC14" t="s">
         <v>2</v>
       </c>
-      <c r="BD14">
-        <v>0</v>
+      <c r="BD14" t="s">
+        <v>8</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -3324,8 +3227,8 @@
       <c r="BI14">
         <v>0</v>
       </c>
-      <c r="BJ14">
-        <v>0</v>
+      <c r="BJ14" t="s">
+        <v>8</v>
       </c>
       <c r="BK14" t="s">
         <v>2</v>
@@ -3411,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -3438,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI15">
         <v>1</v>
@@ -3611,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -4343,24 +4246,24 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"g"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>P</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,7 +443,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ15" sqref="BJ15"/>
+      <selection activeCell="BA11" sqref="BA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1746,8 +1754,8 @@
       <c r="AH7">
         <v>0</v>
       </c>
-      <c r="AI7">
-        <v>0</v>
+      <c r="AI7" t="s">
+        <v>9</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2295,8 +2303,8 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
+      <c r="R10" t="s">
+        <v>9</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2600,8 +2608,8 @@
       <c r="AZ11">
         <v>0</v>
       </c>
-      <c r="BA11">
-        <v>0</v>
+      <c r="BA11" t="s">
+        <v>10</v>
       </c>
       <c r="BB11">
         <v>0</v>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>E2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +443,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA11" sqref="BA11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -453,13 +453,13 @@
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1853,13 +1853,13 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.45">
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="BA11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.45">
@@ -2689,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="BK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.45">
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3036,19 +3036,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.45">
@@ -3058,26 +3058,26 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="H14" t="s">
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3104,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3134,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="AI14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3185,22 +3185,22 @@
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>0</v>
       </c>
       <c r="AU14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14">
         <v>0</v>
       </c>
       <c r="AW14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3215,16 +3215,16 @@
         <v>0</v>
       </c>
       <c r="BC14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE14">
         <v>0</v>
       </c>
       <c r="BF14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3233,21 +3233,21 @@
         <v>0</v>
       </c>
       <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ14">
+        <v>2</v>
+      </c>
+      <c r="BK14">
         <v>2</v>
       </c>
       <c r="BL14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN14">
         <v>2</v>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -3433,22 +3433,22 @@
         <v>1</v>
       </c>
       <c r="BI15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.45">

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K019G1339\1年\GameJam9\2019_9_GameJam\GameJam9\GameJam9\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9月ゲームジャム\2019_9_GameJam\GameJam9\GameJam9\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +451,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2882,8 +2890,8 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>12</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -3124,8 +3132,8 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
+      <c r="Y14" t="s">
+        <v>11</v>
       </c>
       <c r="Z14">
         <v>0</v>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9月ゲームジャム\2019_9_GameJam\GameJam9\GameJam9\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K019G1339\1年\GameJam9\2019_9_GameJam\GameJam9\GameJam9\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>g</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -58,7 +50,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E2</t>
+    <t>P</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -66,7 +58,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P</t>
+    <t>iK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -74,7 +70,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>iK</t>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -129,11 +129,25 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -147,21 +161,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,7 +458,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1347,17 +1354,17 @@
       <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
+      <c r="AD5" t="s">
+        <v>11</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>8</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1475,8 +1482,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1487,8 +1494,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1541,29 +1548,29 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
+      <c r="AB6" t="s">
+        <v>11</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1676,22 +1683,22 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1742,28 +1749,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1866,8 +1873,8 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1879,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1914,8 +1921,8 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>0</v>
+      <c r="S8" t="s">
+        <v>7</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1935,29 +1942,29 @@
       <c r="Y8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
+      <c r="Z8" t="s">
+        <v>11</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2007,8 +2014,8 @@
       <c r="AW8">
         <v>0</v>
       </c>
-      <c r="AX8">
-        <v>0</v>
+      <c r="AX8" t="s">
+        <v>7</v>
       </c>
       <c r="AY8">
         <v>0</v>
@@ -2061,16 +2068,16 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2079,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2133,28 +2140,28 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2180,8 +2187,8 @@
       <c r="AN9">
         <v>0</v>
       </c>
-      <c r="AO9">
-        <v>0</v>
+      <c r="AO9" t="s">
+        <v>7</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2261,16 +2268,16 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2279,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2311,8 +2318,8 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>8</v>
+      <c r="R10">
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2326,35 +2333,35 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
+      <c r="W10" t="s">
+        <v>12</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2453,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="BM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2530,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11">
         <v>2</v>
@@ -2551,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2616,8 +2623,8 @@
       <c r="AZ11">
         <v>0</v>
       </c>
-      <c r="BA11" t="s">
-        <v>9</v>
+      <c r="BA11">
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -2649,22 +2656,22 @@
       <c r="BK11">
         <v>0</v>
       </c>
-      <c r="BL11">
-        <v>1</v>
+      <c r="BL11" t="s">
+        <v>11</v>
       </c>
       <c r="BM11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2726,23 +2733,23 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
-        <v>0</v>
+      <c r="W12" t="s">
+        <v>11</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2814,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -2843,20 +2850,20 @@
       <c r="BI12">
         <v>0</v>
       </c>
-      <c r="BJ12">
-        <v>0</v>
+      <c r="BJ12" t="s">
+        <v>11</v>
       </c>
       <c r="BK12">
         <v>1</v>
       </c>
       <c r="BL12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.45">
@@ -2867,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2890,8 +2897,8 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>12</v>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2927,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2959,8 +2966,8 @@
       <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AH13">
-        <v>0</v>
+      <c r="AH13" t="s">
+        <v>6</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -3011,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -3067,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3081,152 +3088,152 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
+        <v>2</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD14" t="s">
         <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>7</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -3267,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3324,22 +3331,22 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15">
         <v>1</v>
@@ -3411,16 +3418,16 @@
         <v>1</v>
       </c>
       <c r="AY15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC15">
         <v>1</v>
@@ -3524,13 +3531,13 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -4262,25 +4269,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"E2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"g"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"g"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>E2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,7 +462,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX9" sqref="AX9"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3151,8 +3155,8 @@
       <c r="AB14" t="s">
         <v>2</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
+      <c r="AC14" t="s">
+        <v>13</v>
       </c>
       <c r="AD14" t="s">
         <v>1</v>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -133,7 +133,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -180,6 +180,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -461,14 +468,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1:CI19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="66" width="2.3984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1">

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
@@ -81,6 +81,14 @@
     <t>d</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +141,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -180,13 +188,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -469,7 +470,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BO1" sqref="BO1:CI19"/>
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3568,17 +3569,17 @@
       <c r="AE16">
         <v>2</v>
       </c>
-      <c r="AF16">
-        <v>2</v>
-      </c>
-      <c r="AG16">
-        <v>2</v>
-      </c>
-      <c r="AH16">
-        <v>2</v>
-      </c>
-      <c r="AI16">
-        <v>2</v>
+      <c r="AF16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>14</v>
       </c>
       <c r="AJ16">
         <v>2</v>

--- a/GameJam9/GameJam9/Content/Maptest.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -470,7 +466,7 @@
   <dimension ref="A1:BN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2196,8 +2192,8 @@
       <c r="AN9">
         <v>0</v>
       </c>
-      <c r="AO9" t="s">
-        <v>7</v>
+      <c r="AO9">
+        <v>0</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2342,8 +2338,8 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>12</v>
+      <c r="W10">
+        <v>0</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -3161,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="AC14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="s">
         <v>1</v>
@@ -3570,16 +3566,16 @@
         <v>2</v>
       </c>
       <c r="AF16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ16">
         <v>2</v>
